--- a/epitweetr/inst/extdata/users.xlsx
+++ b/epitweetr/inst/extdata/users.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lespinosa\github_repos\epitweetr\epitweetr\inst\extdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD96897A-C717-4646-93AA-B87376A07AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10350"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Twitter accounts for epitweetr" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>@Xinhua_English</t>
   </si>
@@ -379,12 +385,15 @@
   </si>
   <si>
     <t>Twitter accounts</t>
+  </si>
+  <si>
+    <t>@MoHU_En</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,9 +431,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,11 +714,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,6 +1327,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
